--- a/Oracle padding attack Project/Paper list.xlsx
+++ b/Oracle padding attack Project/Paper list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE0A590E-4164-4432-B309-F60090B6D34F}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F85B0DF7-AE06-4EBB-8A20-3679BE5B635C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>No.</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Digital Library</t>
+  </si>
+  <si>
+    <t>Contributor</t>
   </si>
   <si>
     <t>Bleichenbacher's attack on RSA</t>
@@ -88,6 +91,9 @@
     </r>
   </si>
   <si>
+    <t>Adrijhith</t>
+  </si>
+  <si>
     <t>Vaudenay original work</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>Vaudenay, S.: Security flaws induced by CBC padding – applications to SSL, IPSEC, WTLS. In: Knudsen, L.R. (ed.) EUROCRYPT 2002. LNCS, vol. 2332, pp. 534–546. Springer, Heidelberg (2002)</t>
   </si>
   <si>
+    <t>Suriyajith</t>
+  </si>
+  <si>
     <t>Vaudenay modification</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>N. J. AlFardan and K. G. Paterson, "Lucky thirteen: Breaking the TLS and DTLS record protocols", IEEE SP, pp. 526-540, 2013.</t>
   </si>
   <si>
+    <t>Shafi</t>
+  </si>
+  <si>
     <t>Lucky 13 Modification 1</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
   </si>
   <si>
     <t>Cryptology Eprint archive</t>
-  </si>
-  <si>
-    <t>Manger's attack</t>
   </si>
   <si>
     <t>A chosen ciphertext attack on RSA optimal asymmetric encryption padding (OAEP) as standardized in PKCS #1 v2.0</t>
@@ -187,10 +196,28 @@
     </r>
   </si>
   <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Ashiq</t>
+  </si>
+  <si>
+    <t>Instantiability of RSA-OAEP Under Chosen-Plaintext Attack</t>
+  </si>
+  <si>
     <t>⁠POODLE Attack</t>
   </si>
   <si>
     <t>Bodo Möller, Thai Duong, and Krzysztof Kotowicz, "This POODLE Bites: Exploiting the SSL 3.0 Fallback," Google Security Blog, 2014. (Blog)</t>
+  </si>
+  <si>
+    <t>    2014</t>
+  </si>
+  <si>
+    <t> Bodo M¨oller, Thai Duong and Krzysztof Kotowicz. This POODLE Bites: Exploiting The SSL 3.0 Fallback, 2014.</t>
+  </si>
+  <si>
+    <t>Vishal</t>
   </si>
   <si>
     <t>Man-in-the-Middle Downgrade Attacks</t>
@@ -227,6 +254,21 @@
       </rPr>
       <t>, 2015.</t>
     </r>
+  </si>
+  <si>
+    <t>Ornob</t>
+  </si>
+  <si>
+    <t>DROWN</t>
+  </si>
+  <si>
+    <t>DROWN: Breaking TLS using SSLv2</t>
+  </si>
+  <si>
+    <t>Proceedings of the 25th USENIX Security Symposium, August 2016</t>
+  </si>
+  <si>
+    <t>showren</t>
   </si>
   <si>
     <t>RQ1</t>
@@ -304,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -452,11 +494,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -503,17 +556,53 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -794,18 +883,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC1B9338-68EE-4B73-AD5F-2FA3F198E00C}" name="Table2" displayName="Table2" ref="A3:F24" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A3:F24" xr:uid="{FC1B9338-68EE-4B73-AD5F-2FA3F198E00C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F24">
-    <sortCondition ref="A3:A24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC1B9338-68EE-4B73-AD5F-2FA3F198E00C}" name="Table2" displayName="Table2" ref="A3:G25" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A3:G25" xr:uid="{FC1B9338-68EE-4B73-AD5F-2FA3F198E00C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F25">
+    <sortCondition ref="A3:A25"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10110506-1A5D-4B46-89A3-B5CCE91ADF2F}" name="No." dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C75BED27-901C-416D-A873-20A8C5BD9A9B}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{AEF4C901-C40C-46D3-B70E-2C91DF2B7181}" name="Title" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C0D57873-CE4D-4771-B5A5-6B80E9CAF145}" name="year" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{377BE5F2-FA51-49AE-A738-1BE6DCBCFD98}" name="Reference Format" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BC80A71E-7D09-4058-A916-3521BD032E92}" name="Digital Library" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{10110506-1A5D-4B46-89A3-B5CCE91ADF2F}" name="No." dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C75BED27-901C-416D-A873-20A8C5BD9A9B}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AEF4C901-C40C-46D3-B70E-2C91DF2B7181}" name="Title" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C0D57873-CE4D-4771-B5A5-6B80E9CAF145}" name="year" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{377BE5F2-FA51-49AE-A738-1BE6DCBCFD98}" name="Reference Format" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BC80A71E-7D09-4058-A916-3521BD032E92}" name="Digital Library" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6B8F19D1-1D39-42FA-B316-7598B64F759E}" name="Contributor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1128,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P24"/>
+  <dimension ref="A3:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1141,10 +1231,10 @@
     <col min="3" max="3" width="76.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="87.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="6" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1253,9 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1173,25 +1265,28 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" ht="29.25">
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="29.25">
       <c r="A4" s="18">
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5">
         <v>1998</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1201,25 +1296,28 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" ht="29.25">
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="29.25">
       <c r="A5" s="19">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>2002</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1229,27 +1327,30 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="30.75">
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="30.75">
       <c r="A6" s="19">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5">
         <v>2004</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -1259,230 +1360,282 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="45.75">
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="45.75">
       <c r="A7" s="19">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>2005</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30.75">
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30.75">
       <c r="A8" s="19">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8">
         <v>2013</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="19">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8">
         <v>2015</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30.75">
+    <row r="10" spans="1:17" ht="30.75">
       <c r="A10" s="19">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8">
         <v>2018</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="29.25">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="29.25">
       <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8">
         <v>2001</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="19">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="27"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" ht="30.75">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="29.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="29.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4">
         <v>2015</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="20"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="E14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="20"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="G15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="20"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="20"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="20"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="20"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="20"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="20"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="20"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="20"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="20"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1507,20 +1660,20 @@
   <sheetData>
     <row r="6" spans="5:6">
       <c r="E6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="5:6">
       <c r="E7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Oracle padding attack Project/Paper list.xlsx
+++ b/Oracle padding attack Project/Paper list.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F85B0DF7-AE06-4EBB-8A20-3679BE5B635C}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3150D13D-2030-426F-9D25-59412B34527E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
     <sheet name="Research question" sheetId="2" r:id="rId2"/>
+    <sheet name="digital library" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,10 +32,32 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
-  <si>
-    <t>No.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+  <si>
+    <t>Reference No.</t>
   </si>
   <si>
     <t>Name</t>
@@ -53,6 +76,235 @@
   </si>
   <si>
     <t>Contributor</t>
+  </si>
+  <si>
+    <t>Lucky thirteen</t>
+  </si>
+  <si>
+    <t>Lucky thirteen: Breaking the TLS and DTLS record protocols</t>
+  </si>
+  <si>
+    <t>Al Fardan, Nadhem J., and Kenneth G. Paterson. "Lucky thirteen: Breaking the TLS and DTLS record protocols." 2013 IEEE symposium on security and privacy. IEEE, 2013.</t>
+  </si>
+  <si>
+    <t>Google scholar</t>
+  </si>
+  <si>
+    <t>Shafi</t>
+  </si>
+  <si>
+    <t>Vaudenay original work</t>
+  </si>
+  <si>
+    <t>Security flaws induced by CBC padding – applications to SSL, IPSEC, WTLS.</t>
+  </si>
+  <si>
+    <t>Vaudenay, S.: Security flaws induced by CBC padding – applications to SSL, IPSEC, WTLS. In: Knudsen, L.R. (ed.) EUROCRYPT 2002. LNCS, vol. 2332, pp. 534–546. Springer, Heidelberg (2002)S. Vaudenay, "Security Flaws Induced by CBC Padding - Applications to SSL, IPSEC, WTLS...," in Lecture Notes in Computer Science, vol. 2332, Springer, Berlin, Heidelberg, 2002, pp. 534-545.</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Surajit, Adrijeet (only for background study reference)</t>
+  </si>
+  <si>
+    <t>Vaudenay modification</t>
+  </si>
+  <si>
+    <t>Padding Oracle Attacks on the ISO CBC Mode Encryption Standard</t>
+  </si>
+  <si>
+    <t>K. G. Paterson and A. Yau, "Padding Oracle Attacks on the ISO CBC Mode Encryption Standard," in Lecture Notes in Computer Science, vol. 2951, Springer, Berlin, Heidelberg, 2004, pp. 305-323.</t>
+  </si>
+  <si>
+    <t>Surajit</t>
+  </si>
+  <si>
+    <t>The Security of Cipher Block Chaining</t>
+  </si>
+  <si>
+    <t>P. Rogaway, "The Security of Cipher Block Chaining," in Journal of Computer and System Sciences, vol. 61, no. 3, 2000, pp. 362-399</t>
+  </si>
+  <si>
+    <t>Scince Direct</t>
+  </si>
+  <si>
+    <t>Provable Security in Practice: Analysis of SSH and CBC mode with
+Padding</t>
+  </si>
+  <si>
+    <r>
+      <t>Watson, Gaven James. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Provable Security in Practice: Analysis of SSH and CBC mode with Padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. Diss. Royal Holloway, University of London, 2010.</t>
+    </r>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Vaudenay modification 2.0</t>
+  </si>
+  <si>
+    <t>Padding Oracle Attacks on CBC-mode Encryption with Secret and Random IVs</t>
+  </si>
+  <si>
+    <t>Yau, A.K.L., Paterson, K.G., Mitchell, C.J.: Padding oracle attacks on CBC-mode encryption with secret and random IVs. In: Gilbert, H., Handschuh, H. (eds.) FSE 2005. LNCS, vol. 3557, pp. 299–319. Springer, Heidelberg (2005)</t>
+  </si>
+  <si>
+    <t>Man-in-the-Middle Downgrade Attacks</t>
+  </si>
+  <si>
+    <t>On the security of TLS 1.3 and QUIC against weaknesses in PKCS#1 v1.5 encryption</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">T. Jager, J. Schwenk and J. Somorovsky, "On the security of TLS 1.3 and QUIC against weaknesses in PKCS#1 v1.5 encryption", </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2015.</t>
+    </r>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>Ornob</t>
+  </si>
+  <si>
+    <t>DROWN</t>
+  </si>
+  <si>
+    <t>DROWN: Breaking TLS using SSLv2</t>
+  </si>
+  <si>
+    <t>Proceedings of the 25th USENIX Security Symposium, August 2016</t>
+  </si>
+  <si>
+    <t>showren</t>
+  </si>
+  <si>
+    <t>Lucky thirteen modification 2</t>
+  </si>
+  <si>
+    <t>Pseudo constant time implementations of TLS are only pseudo secure</t>
+  </si>
+  <si>
+    <t>E. Ronen, K. G. Paterson and A. Shamir, "Pseudo constant time implementations of TLS are only pseudo secure", CCS, 2018.</t>
+  </si>
+  <si>
+    <t>The Secure Sockets Layer (SSL) Protocol Version 3.0</t>
+  </si>
+  <si>
+    <t>A. Freier, P. Karlton, P. Kocher: “The Secure Sockets Layer (SSL) Protocol
+Version 3.0”, RFC 6101, 1996 (published as Historic RFC in 2011)</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>⁠POODLE Attack</t>
+  </si>
+  <si>
+    <t>Bodo Möller, Thai Duong, and Krzysztof Kotowicz, "This POODLE Bites: Exploiting the SSL 3.0 Fallback," Google Security Blog, 2014. (Blog)</t>
+  </si>
+  <si>
+    <t> Bodo M¨oller, Thai Duong and Krzysztof Kotowicz. This POODLE Bites: Exploiting The SSL 3.0 Fallback, 2014.</t>
+  </si>
+  <si>
+    <t>Kitchenham, Barbara. (2004). Procedures for Performing Systematic Reviews. Keele, UK, Keele Univ.. 33</t>
+  </si>
+  <si>
+    <t>RSA-OAEP</t>
+  </si>
+  <si>
+    <t>A chosen ciphertext attack on RSA optimal asymmetric encryption padding (OAEP) as standardized in PKCS #1 v2.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">J. Manger, "A chosen ciphertext attack on RSA optimal asymmetric encryption padding (OAEP) as standardized in PKCS #1 v2.0", </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRYPTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2001.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ashiq</t>
+  </si>
+  <si>
+    <t>Bleichenbacher's attack modification</t>
+  </si>
+  <si>
+    <t>Bleichenbacher's Attack Strikes Again: Breaking PKCS# 1 v1. 5 in XML Encryption</t>
+  </si>
+  <si>
+    <t>Bleichenbacher, Daniel. "Bleichenbacher's Attack Strikes Again: Breaking PKCS# 1 v1. 5 in XML Encryption." Cryptology ePrint Archive, Report 2003/052, 2003.</t>
+  </si>
+  <si>
+    <t>Adrijeet</t>
   </si>
   <si>
     <t>Bleichenbacher's attack on RSA</t>
@@ -91,184 +343,87 @@
     </r>
   </si>
   <si>
-    <t>Adrijhith</t>
-  </si>
-  <si>
-    <t>Vaudenay original work</t>
-  </si>
-  <si>
-    <t>Security flaws induced by CBC padding – applications to SSL, IPSEC, WTLS.</t>
-  </si>
-  <si>
-    <t>Vaudenay, S.: Security flaws induced by CBC padding – applications to SSL, IPSEC, WTLS. In: Knudsen, L.R. (ed.) EUROCRYPT 2002. LNCS, vol. 2332, pp. 534–546. Springer, Heidelberg (2002)</t>
-  </si>
-  <si>
-    <t>Suriyajith</t>
-  </si>
-  <si>
-    <t>Vaudenay modification</t>
-  </si>
-  <si>
-    <t>Padding Oracle Attacks on the ISO CBC Mode Encryption Standard</t>
-  </si>
-  <si>
-    <t>Paterson, K.G., Yau, A.K.L.: Padding oracle attacks on the ISO CBC mode encryption standard. In: Okamoto, T. (ed.) CT-RSA 2004. LNCS, vol. 2964, pp. 305–323. Springer, Heidelberg (2004)</t>
-  </si>
-  <si>
-    <t>Google scholar</t>
-  </si>
-  <si>
-    <t>Vaudenay modification 2.0</t>
-  </si>
-  <si>
-    <t>Padding Oracle Attacks on CBC-mode Encryption with Secret and Random IVs</t>
-  </si>
-  <si>
-    <t>Yau, A.K.L., Paterson, K.G., Mitchell, C.J.: Padding oracle attacks on CBC-mode encryption with secret and random IVs. In: Gilbert, H., Handschuh, H. (eds.) FSE 2005. LNCS, vol. 3557, pp. 299–319. Springer, Heidelberg (2005)</t>
-  </si>
-  <si>
-    <t>Lucky thirteen</t>
-  </si>
-  <si>
-    <t>Lucky thirteen: Breaking the TLS and DTLS record protocols</t>
-  </si>
-  <si>
-    <t>N. J. AlFardan and K. G. Paterson, "Lucky thirteen: Breaking the TLS and DTLS record protocols", IEEE SP, pp. 526-540, 2013.</t>
-  </si>
-  <si>
-    <t>Shafi</t>
-  </si>
-  <si>
-    <t>Lucky 13 Modification 1</t>
-  </si>
-  <si>
-    <t>Lucky 13 Strikes Back</t>
-  </si>
-  <si>
-    <t>G. Irazoqui, M. S. Inci, T. Eisenbarth and B. Sunar, "Lucky 13 strikes back", ASIA CCS, 2015.</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Lucky thirteen modification 2</t>
-  </si>
-  <si>
-    <t>Pseudo constant time implementations of TLS are only pseudo secure</t>
-  </si>
-  <si>
-    <t>E. Ronen, K. G. Paterson and A. Shamir, "Pseudo constant time implementations of TLS are only pseudo secure", CCS, 2018.</t>
-  </si>
-  <si>
-    <t>Cryptology Eprint archive</t>
-  </si>
-  <si>
-    <t>A chosen ciphertext attack on RSA optimal asymmetric encryption padding (OAEP) as standardized in PKCS #1 v2.0</t>
+    <t>Bleichenbacker Variation</t>
+  </si>
+  <si>
+    <t>Here come the ⊕ ninjas</t>
+  </si>
+  <si>
+    <t>Duong, Thai, and Juliano Rizzo. "Here come the ⊕ ninjas." Black Hat USA 2011.</t>
+  </si>
+  <si>
+    <t>Instantiability of RSA-OAEP Under Chosen-Plaintext Attack</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">J. Manger, "A chosen ciphertext attack on RSA optimal asymmetric encryption padding (OAEP) as standardized in PKCS #1 v2.0", </t>
+      <t>Kiltz, Eike, Adam O’Neill, and Adam Smith. "Instantiability of RSA-OAEP under chosen-plaintext attack." </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>CRYPTO</t>
+      <t>Journal of Cryptology</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>, 2001.</t>
+      <t> 30.3 (2017): 889-919.</t>
     </r>
   </si>
   <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>Ashiq</t>
-  </si>
-  <si>
-    <t>Instantiability of RSA-OAEP Under Chosen-Plaintext Attack</t>
-  </si>
-  <si>
-    <t>⁠POODLE Attack</t>
-  </si>
-  <si>
-    <t>Bodo Möller, Thai Duong, and Krzysztof Kotowicz, "This POODLE Bites: Exploiting the SSL 3.0 Fallback," Google Security Blog, 2014. (Blog)</t>
-  </si>
-  <si>
-    <t>    2014</t>
-  </si>
-  <si>
-    <t> Bodo M¨oller, Thai Duong and Krzysztof Kotowicz. This POODLE Bites: Exploiting The SSL 3.0 Fallback, 2014.</t>
-  </si>
-  <si>
-    <t>Vishal</t>
-  </si>
-  <si>
-    <t>Man-in-the-Middle Downgrade Attacks</t>
-  </si>
-  <si>
-    <t>On the security of TLS 1.3 and QUIC against weaknesses in PKCS#1 v1.5 encryption</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">T. Jager, J. Schwenk and J. Somorovsky, "On the security of TLS 1.3 and QUIC against weaknesses in PKCS#1 v1.5 encryption", </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CCS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 2015.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ornob</t>
-  </si>
-  <si>
-    <t>DROWN</t>
-  </si>
-  <si>
-    <t>DROWN: Breaking TLS using SSLv2</t>
-  </si>
-  <si>
-    <t>Proceedings of the 25th USENIX Security Symposium, August 2016</t>
-  </si>
-  <si>
-    <t>showren</t>
+    <t>Lucky 13 Modification 1</t>
+  </si>
+  <si>
+    <t>Lucky 13 Strikes Back</t>
+  </si>
+  <si>
+    <t>G. Irazoqui, M. S. Inci, T. Eisenbarth and B. Sunar, "Lucky 13 strikes back", ASIA CCS, 2015.</t>
+  </si>
+  <si>
+    <t>Padding Standard: ISO/IEC 9797-1</t>
+  </si>
+  <si>
+    <t>ISO/IEC 9797-1: Information technology - Security tehniques - Message Authentication Codes (MACs) - Part 1: Mechanisms using a block cipher. 1999.</t>
+  </si>
+  <si>
+    <t>Padding Standrd</t>
+  </si>
+  <si>
+    <t>Padding Standard: ISO/IEC FDIS 10118-1</t>
+  </si>
+  <si>
+    <t>ISO/IEC FDIS 10118-1: Information technology - Security techniques - Hash-functions - Part 1: General (Final Draft). 2000</t>
+  </si>
+  <si>
+    <t>Background study of Padding Oracle attacks</t>
+  </si>
+  <si>
+    <t>Practical padding oracle attacks.</t>
+  </si>
+  <si>
+    <t>Klima, V., Pokorny, O., &amp; Rosa, T. "Practical padding oracle attacks." Journal of Cryptology, 21(2), 280-289, 2008.</t>
+  </si>
+  <si>
+    <t>ROBOT</t>
+  </si>
+  <si>
+    <t>Return Of Bleichenbacher's Oracle Threat (ROBOT)</t>
+  </si>
+  <si>
+    <t>Hanno Böck et al. "Return Of Bleichenbacher's Oracle Threat (ROBOT)." 2017. https://robotattack.org/</t>
+  </si>
+  <si>
+    <t>USENIX</t>
   </si>
   <si>
     <t>RQ1</t>
@@ -287,10 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +487,40 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -509,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -521,51 +707,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,7 +974,7 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -882,14 +1078,1040 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Digital Library</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-303A-4F42-B90C-2018B2E31A1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-303A-4F42-B90C-2018B2E31A1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-303A-4F42-B90C-2018B2E31A1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-303A-4F42-B90C-2018B2E31A1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-303A-4F42-B90C-2018B2E31A1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-303A-4F42-B90C-2018B2E31A1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-303A-4F42-B90C-2018B2E31A1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'digital library'!$D$7:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Google scholar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Springer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scince Direct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Others</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ACM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Padding Standrd</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>USENIX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'digital library'!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1A9-4C3C-B4F6-6188FBC9AE2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3581865B-26A4-1664-E3F7-116368DDA97B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC1B9338-68EE-4B73-AD5F-2FA3F198E00C}" name="Table2" displayName="Table2" ref="A3:G25" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A3:G25" xr:uid="{FC1B9338-68EE-4B73-AD5F-2FA3F198E00C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F25">
-    <sortCondition ref="A3:A25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC1B9338-68EE-4B73-AD5F-2FA3F198E00C}" name="Table2" displayName="Table2" ref="A3:G49" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A3:G49" xr:uid="{FC1B9338-68EE-4B73-AD5F-2FA3F198E00C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G49">
+    <sortCondition ref="A3:A49"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{10110506-1A5D-4B46-89A3-B5CCE91ADF2F}" name="No." dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{10110506-1A5D-4B46-89A3-B5CCE91ADF2F}" name="Reference No." dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{C75BED27-901C-416D-A873-20A8C5BD9A9B}" name="Name" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{AEF4C901-C40C-46D3-B70E-2C91DF2B7181}" name="Title" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{C0D57873-CE4D-4771-B5A5-6B80E9CAF145}" name="year" dataDxfId="3"/>
@@ -1218,15 +2440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Q25"/>
+  <dimension ref="A3:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="76.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
@@ -1235,7 +2457,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:17">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1253,7 +2475,7 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="10"/>
@@ -1267,25 +2489,27 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="29.25">
-      <c r="A4" s="18">
+    <row r="4" spans="1:17" ht="30.75">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5">
-        <v>1998</v>
-      </c>
-      <c r="E4" s="16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1298,25 +2522,27 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="29.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:17" ht="57.75">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>2002</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="30" t="s">
         <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1330,26 +2556,26 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="30.75">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <v>2004</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>17</v>
+      <c r="E6" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -1362,280 +2588,612 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="45.75">
-      <c r="A7" s="19">
+    <row r="7" spans="1:17">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="30.75">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="45.75">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2005</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
-        <v>2005</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30.75">
-      <c r="A8" s="19">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2013</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="19">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8">
+    </row>
+    <row r="10" spans="1:17" ht="29.25">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8">
         <v>2015</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30.75">
-      <c r="A10" s="19">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="29.25">
-      <c r="A11" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="21" t="s">
-        <v>34</v>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30.75">
+      <c r="A12" s="16">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30.75">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30.75">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30.75">
+      <c r="A15" s="15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="29.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5">
         <v>2001</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="27"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" ht="30.75">
-      <c r="A13" s="19">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="29.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="E16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15"/>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25">
+      <c r="A18" s="15">
+        <v>13</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1998</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="15"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="15"/>
+      <c r="B21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5">
         <v>2015</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="20"/>
-      <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2016</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="20"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
+      <c r="A22" s="15">
+        <v>14</v>
+      </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
+      <c r="A23" s="15">
+        <v>15</v>
+      </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="15"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="15"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="15"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="15"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="15"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="15"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="15"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="15"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="15"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="15"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="15"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="15"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="15"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="15"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="15"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="15"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="15"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="15"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="15"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="15"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="15"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="15"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="15"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1650,7 +3208,7 @@
   <dimension ref="E6:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1660,23 +3218,137 @@
   <sheetData>
     <row r="6" spans="5:6">
       <c r="E6" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="5:6">
       <c r="E7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C2AFE7-CE1F-4ED8-8A50-624AD669250C}">
+  <dimension ref="D5:E17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="4:5">
+      <c r="D5" cm="1">
+        <f t="array" ref="D5:D13">_xlfn.UNIQUE(list!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" t="str">
+        <v>Digital Library</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" t="str">
+        <v>Google scholar</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIF(list!F:F,'digital library'!D7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" t="str">
+        <v>Springer</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIF(list!F:F,'digital library'!D8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" t="str">
+        <v>Scince Direct</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIF(list!F:F,'digital library'!D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" t="str">
+        <v>Others</v>
+      </c>
+      <c r="E10">
+        <f>COUNTIF(list!F:F,'digital library'!D10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" t="str">
+        <v>ACM</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIF(list!F:F,'digital library'!D11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" t="str">
+        <v>Padding Standrd</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIF(list!F:F,'digital library'!D12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" t="str">
+        <v>USENIX</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIF(list!F:F,'digital library'!D13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="E14">
+        <f>COUNTIF(list!F:F,'digital library'!D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="E15">
+        <f>COUNTIF(list!F:F,'digital library'!D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="E16">
+        <f>COUNTIF(list!F:F,'digital library'!D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17">
+        <f>COUNTIF(list!F:F,'digital library'!D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Oracle padding attack Project/Paper list.xlsx
+++ b/Oracle padding attack Project/Paper list.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="379" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3150D13D-2030-426F-9D25-59412B34527E}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCB0E4B7-F149-4A1E-9022-920A26278E60}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
-    <sheet name="Research question" sheetId="2" r:id="rId2"/>
-    <sheet name="digital library" sheetId="3" r:id="rId3"/>
+    <sheet name="digital library" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>Reference No.</t>
   </si>
@@ -219,7 +218,7 @@
     <t>DROWN: Breaking TLS using SSLv2</t>
   </si>
   <si>
-    <t>Proceedings of the 25th USENIX Security Symposium, August 2016</t>
+    <t>Aviram, N., Schinzel, S., Somorovsky, J., Heninger, N., Dankel, M., Steube, J., ... &amp; Dukhovni, V. (2016). DROWN: Breaking TLS using SSLv2. In 25th USENIX Security Symposium.</t>
   </si>
   <si>
     <t>showren</t>
@@ -254,6 +253,60 @@
   </si>
   <si>
     <t>Kitchenham, Barbara. (2004). Procedures for Performing Systematic Reviews. Keele, UK, Keele Univ.. 33</t>
+  </si>
+  <si>
+    <t>Bleichenbacher's attack on RSA</t>
+  </si>
+  <si>
+    <t>Chosen ciphertext attacks against protocols based on the RSA encryption standard PKCS #1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Bleichenbacher, "Chosen ciphertext attacks against protocols based on the RSA encryption standard PKCS #1", </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRYPTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1998.</t>
+    </r>
+  </si>
+  <si>
+    <t>Adrijeet</t>
+  </si>
+  <si>
+    <t>Padding Standard: ISO/IEC 9797-1</t>
+  </si>
+  <si>
+    <t>ISO/IEC 9797-1: Information technology - Security tehniques - Message Authentication Codes (MACs) - Part 1: Mechanisms using a block cipher. 1999.</t>
+  </si>
+  <si>
+    <t>Padding Standrd</t>
+  </si>
+  <si>
+    <t>Padding Standard: ISO/IEC FDIS 10118-1</t>
+  </si>
+  <si>
+    <t>ISO/IEC FDIS 10118-1: Information technology - Security techniques - Hash-functions - Part 1: General (Final Draft). 2000</t>
   </si>
   <si>
     <t>RSA-OAEP</t>
@@ -295,61 +348,10 @@
     <t>Ashiq</t>
   </si>
   <si>
-    <t>Bleichenbacher's attack modification</t>
-  </si>
-  <si>
-    <t>Bleichenbacher's Attack Strikes Again: Breaking PKCS# 1 v1. 5 in XML Encryption</t>
-  </si>
-  <si>
-    <t>Bleichenbacher, Daniel. "Bleichenbacher's Attack Strikes Again: Breaking PKCS# 1 v1. 5 in XML Encryption." Cryptology ePrint Archive, Report 2003/052, 2003.</t>
-  </si>
-  <si>
-    <t>Adrijeet</t>
-  </si>
-  <si>
-    <t>Bleichenbacher's attack on RSA</t>
-  </si>
-  <si>
-    <t>Chosen ciphertext attacks against protocols based on the RSA encryption standard PKCS #1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Bleichenbacher, "Chosen ciphertext attacks against protocols based on the RSA encryption standard PKCS #1", </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CRYPTO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 1998.</t>
-    </r>
-  </si>
-  <si>
-    <t>Bleichenbacker Variation</t>
-  </si>
-  <si>
-    <t>Here come the ⊕ ninjas</t>
-  </si>
-  <si>
-    <t>Duong, Thai, and Juliano Rizzo. "Here come the ⊕ ninjas." Black Hat USA 2011.</t>
+    <t>Coron, Jean-Sébastien, et al. "Universal padding schemes for RSA." Advances in Cryptology—CRYPTO 2002: 22nd Annual International Cryptology Conference Santa Barbara, California, USA, August 18–22, 2002 Proceedings 22. Springer Berlin Heidelberg, 2002</t>
+  </si>
+  <si>
+    <t>Pointcheval, David. "How to encrypt properly with RSA." CryptoBytes 5.1 (2002): 10-19</t>
   </si>
   <si>
     <t>Instantiability of RSA-OAEP Under Chosen-Plaintext Attack</t>
@@ -390,19 +392,61 @@
     <t>G. Irazoqui, M. S. Inci, T. Eisenbarth and B. Sunar, "Lucky 13 strikes back", ASIA CCS, 2015.</t>
   </si>
   <si>
-    <t>Padding Standard: ISO/IEC 9797-1</t>
-  </si>
-  <si>
-    <t>ISO/IEC 9797-1: Information technology - Security tehniques - Message Authentication Codes (MACs) - Part 1: Mechanisms using a block cipher. 1999.</t>
-  </si>
-  <si>
-    <t>Padding Standrd</t>
-  </si>
-  <si>
-    <t>Padding Standard: ISO/IEC FDIS 10118-1</t>
-  </si>
-  <si>
-    <t>ISO/IEC FDIS 10118-1: Information technology - Security techniques - Hash-functions - Part 1: General (Final Draft). 2000</t>
+    <t xml:space="preserve">https://www.acunetix.com/blog/web-security-zone/what-is-poodleattack/.  </t>
+  </si>
+  <si>
+    <t>https://patzke.org/implementing-the-poodle-attack.html.</t>
+  </si>
+  <si>
+    <t>https://nvd.nist.gov/vuln/detail/CVE-2014-3566</t>
+  </si>
+  <si>
+    <t>https://www.cisa.gov/news-events/alerts/2014/10/17/ssl-30-protocol-vulnerability-and-poodle-attack</t>
+  </si>
+  <si>
+    <t>Padding Oracle Attacks. Seminar Innovative Internet Technologies and Mobile Communications</t>
+  </si>
+  <si>
+    <t>Fedler, R. (2013). Padding Oracle Attacks. Seminar Innovative Internet Technologies and Mobile Communications.</t>
+  </si>
+  <si>
+    <t>Technische Universität München</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>The transport layer security (TLS) protocol version 1.3</t>
+  </si>
+  <si>
+    <t>IETF. (2018). The transport layer security (TLS) protocol version 1.3. RFC 8446.</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>The CRIME attack.</t>
+  </si>
+  <si>
+    <t>Rizzo, J., &amp; Duong, T. (2012). The CRIME attack.</t>
+  </si>
+  <si>
+    <t>Bleichenbacher's attack modification</t>
+  </si>
+  <si>
+    <t>Bleichenbacher's Attack Strikes Again: Breaking PKCS# 1 v1. 5 in XML Encryption</t>
+  </si>
+  <si>
+    <t>Bleichenbacher, Daniel. "Bleichenbacher's Attack Strikes Again: Breaking PKCS# 1 v1. 5 in XML Encryption." Cryptology ePrint Archive, Report 2003/052, 2003.</t>
+  </si>
+  <si>
+    <t>Bleichenbacker Variation</t>
+  </si>
+  <si>
+    <t>Here come the ⊕ ninjas</t>
+  </si>
+  <si>
+    <t>Duong, Thai, and Juliano Rizzo. "Here come the ⊕ ninjas." Black Hat USA 2011.</t>
   </si>
   <si>
     <t>Background study of Padding Oracle attacks</t>
@@ -424,25 +468,13 @@
   </si>
   <si>
     <t>USENIX</t>
-  </si>
-  <si>
-    <t>RQ1</t>
-  </si>
-  <si>
-    <t>RQ2</t>
-  </si>
-  <si>
-    <t>what are the attacks listed? are they resolved?</t>
-  </si>
-  <si>
-    <t>RQ3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +554,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -692,10 +732,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -730,9 +771,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -741,10 +779,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -761,9 +795,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1297,6 +1346,40 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1354,9 +1437,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'digital library'!$D$7:$D$13</c:f>
+              <c:f>'digital library'!$D$7:$D$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Google scholar</c:v>
                 </c:pt>
@@ -1376,6 +1459,12 @@
                   <c:v>Padding Standrd</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Technische Universität München</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RFC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>USENIX</c:v>
                 </c:pt>
               </c:strCache>
@@ -1383,12 +1472,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'digital library'!$E$7:$E$13</c:f>
+              <c:f>'digital library'!$E$7:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -1406,6 +1495,12 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2443,7 +2538,7 @@
   <dimension ref="A3:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2490,7 +2585,7 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="30.75">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -2502,7 +2597,7 @@
       <c r="D4" s="5">
         <v>2013</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2535,7 +2630,7 @@
       <c r="D5" s="4">
         <v>2002</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2593,7 +2688,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="4">
@@ -2616,7 +2711,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -2651,16 +2746,16 @@
       <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="8">
         <v>2015</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -2683,7 +2778,7 @@
       <c r="D11" s="8">
         <v>2016</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2750,7 +2845,7 @@
       <c r="D14" s="4">
         <v>2014</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2776,17 +2871,19 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="29.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="15">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="32" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E16" s="24" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -2797,268 +2894,334 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="15">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5">
-        <v>2003</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.25">
-      <c r="A18" s="15">
-        <v>13</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="F18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29.25">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="5">
-        <v>1998</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="C19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="D19" s="4">
+        <v>2001</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16"/>
-      <c r="B19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="15">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="28" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="15">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15"/>
-      <c r="B21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2015</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>68</v>
+      <c r="C22" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="20" t="s">
-        <v>69</v>
+      <c r="E22" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="15">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="15">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="15">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15"/>
-      <c r="B24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15"/>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="16"/>
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="15"/>
+      <c r="A27" s="15">
+        <v>24</v>
+      </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="37" t="s">
+        <v>72</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="15"/>
+      <c r="A28" s="15">
+        <v>25</v>
+      </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2013</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="15">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15">
+        <v>27</v>
+      </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="15"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="15"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="15"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="15"/>
@@ -3066,7 +3229,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7">
@@ -3074,8 +3237,8 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7">
@@ -3196,62 +3359,34 @@
       <c r="G49" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" xr:uid="{2DBAD354-8EF6-4A24-B644-F90C9904D823}"/>
+    <hyperlink ref="E26" r:id="rId2" xr:uid="{CEDE3284-6AC6-4B4A-9623-F71BABB9AD12}"/>
+    <hyperlink ref="E27" r:id="rId3" xr:uid="{29518F5F-0CCE-4C88-B549-4C9BD8B17F4F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8760F66-C96A-4F24-9FC1-FD12B43760E9}">
-  <dimension ref="E6:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C2AFE7-CE1F-4ED8-8A50-624AD669250C}">
+  <dimension ref="D5:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="5:6">
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6">
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C2AFE7-CE1F-4ED8-8A50-624AD669250C}">
-  <dimension ref="D5:E17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" cm="1">
-        <f t="array" ref="D5:D13">_xlfn.UNIQUE(list!F:F)</f>
+        <f t="array" ref="D5:D15">_xlfn.UNIQUE(list!F:F)</f>
         <v>0</v>
       </c>
     </row>
@@ -3266,7 +3401,7 @@
       </c>
       <c r="E7">
         <f>COUNTIF(list!F:F,'digital library'!D7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:5">
@@ -3316,7 +3451,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" t="str">
-        <v>USENIX</v>
+        <v>Technische Universität München</v>
       </c>
       <c r="E13">
         <f>COUNTIF(list!F:F,'digital library'!D13)</f>
@@ -3324,15 +3459,21 @@
       </c>
     </row>
     <row r="14" spans="4:5">
+      <c r="D14" t="str">
+        <v>RFC</v>
+      </c>
       <c r="E14">
         <f>COUNTIF(list!F:F,'digital library'!D14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="4:5">
+      <c r="D15" t="str">
+        <v>USENIX</v>
+      </c>
       <c r="E15">
         <f>COUNTIF(list!F:F,'digital library'!D15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:5">
